--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1677,11 +1677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400197888"/>
-        <c:axId val="400199680"/>
+        <c:axId val="389277184"/>
+        <c:axId val="389278720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400197888"/>
+        <c:axId val="389277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,12 +1701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400199680"/>
+        <c:crossAx val="389278720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400199680"/>
+        <c:axId val="389278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400197888"/>
+        <c:crossAx val="389277184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4874,11 +4874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400668928"/>
-        <c:axId val="400674816"/>
+        <c:axId val="390977024"/>
+        <c:axId val="390978560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400668928"/>
+        <c:axId val="390977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,14 +4898,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400674816"/>
+        <c:crossAx val="390978560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400674816"/>
+        <c:axId val="390978560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +4916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400668928"/>
+        <c:crossAx val="390977024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5048,7 +5048,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5056,7 +5056,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0002</v>
+            <v>EUR6M#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -5091,7 +5091,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0002</v>
+            <v>EURTND_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -5655,7 +5655,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="61">
-        <v>42246.735532407409</v>
+        <v>42247.465601851851</v>
       </c>
       <c r="J7" s="58"/>
     </row>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5680,8 +5680,8 @@
         <v>14</v>
       </c>
       <c r="D9" s="54" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00504#0002</v>
+        <f>_xll.qlPiecewiseYieldCurve(,"yc1",,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
+        <v>yc1#0001</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="1"/>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="I9" s="29">
         <f>_xll.ohTrigger(Contribution!M1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5763,8 +5763,8 @@
         <v>14</v>
       </c>
       <c r="I14" s="54" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00506#0002</v>
+        <f>_xll.qlPiecewiseYieldCurve(,"yc2",,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
+        <v>yc2#0002</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -5801,8 +5801,8 @@
         <v>97</v>
       </c>
       <c r="I16" s="174" t="str">
-        <f>_xll.qlEonia(,,,,$I$14)</f>
-        <v>obj_00507#0002</v>
+        <f>_xll.qlEonia(,"id1",,,$I$14)</f>
+        <v>id1#0003</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0002</v>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F3" s="81" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISJUN15#0002</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G3" s="82" t="b">
         <f>IF(ISERROR(F3),FALSE,TRUE)</f>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISJUL15#0002</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G4" s="82" t="b">
         <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0002</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G5" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0002</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G6" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0002</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G7" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISJAN16#0002</v>
+        <v>WEURECBOISJAN16#0000</v>
       </c>
       <c r="G8" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="F9" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B9&amp;C9&amp;D9,,,A9,A10,E9,OvernightIndex)</f>
-        <v>WEURECBOISMAR16#0002</v>
+        <v>WEURECBOISMAR16#0000</v>
       </c>
       <c r="G9" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="F10" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(,"W"&amp;Currency&amp;B10&amp;C10&amp;D10,,,A10,A11,E10,OvernightIndex)</f>
-        <v>WEURECBOISAPR16#0002</v>
+        <v>WEURECBOISAPR16#0000</v>
       </c>
       <c r="G10" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="F18" s="81" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
-        <v>WEUREONSW#0002</v>
+        <v>WEUREONSW#0000</v>
       </c>
       <c r="G18" s="83" t="b">
         <v>1</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="F19" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,D19,E19,OvernightIndex)</f>
-        <v>WEUREON2W#0002</v>
+        <v>WEUREON2W#0000</v>
       </c>
       <c r="G19" s="82" t="b">
         <v>1</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="F20" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,D20,E20,OvernightIndex)</f>
-        <v>WEUREON3W#0002</v>
+        <v>WEUREON3W#0000</v>
       </c>
       <c r="G20" s="82" t="b">
         <v>1</v>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="F21" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,D21,E21,OvernightIndex)</f>
-        <v>WEUREON1M#0002</v>
+        <v>WEUREON1M#0000</v>
       </c>
       <c r="G21" s="82" t="b">
         <v>1</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="F22" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,D22,E22,OvernightIndex)</f>
-        <v>WEUREON2M#0002</v>
+        <v>WEUREON2M#0000</v>
       </c>
       <c r="G22" s="82" t="b">
         <v>1</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="F23" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,D23,E23,OvernightIndex)</f>
-        <v>WEUREON3M#0002</v>
+        <v>WEUREON3M#0000</v>
       </c>
       <c r="G23" s="82" t="b">
         <v>1</v>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F24" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,D24,E24,OvernightIndex)</f>
-        <v>WEUREON4M#0002</v>
+        <v>WEUREON4M#0000</v>
       </c>
       <c r="G24" s="82" t="b">
         <v>1</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="F25" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,D25,E25,OvernightIndex)</f>
-        <v>WEUREON5M#0002</v>
+        <v>WEUREON5M#0000</v>
       </c>
       <c r="G25" s="82" t="b">
         <v>1</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F26" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,D26,E26,OvernightIndex)</f>
-        <v>WEUREON6M#0002</v>
+        <v>WEUREON6M#0000</v>
       </c>
       <c r="G26" s="82" t="b">
         <v>1</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="F27" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,D27,E27,OvernightIndex)</f>
-        <v>WEUREON7M#0002</v>
+        <v>WEUREON7M#0000</v>
       </c>
       <c r="G27" s="82" t="b">
         <v>1</v>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="F28" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,D28,E28,OvernightIndex)</f>
-        <v>WEUREON8M#0002</v>
+        <v>WEUREON8M#0000</v>
       </c>
       <c r="G28" s="82" t="b">
         <v>1</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="F29" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,D29,E29,OvernightIndex)</f>
-        <v>WEUREON9M#0002</v>
+        <v>WEUREON9M#0000</v>
       </c>
       <c r="G29" s="82" t="b">
         <v>1</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="F30" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,D30,E30,OvernightIndex)</f>
-        <v>WEUREON10M#0002</v>
+        <v>WEUREON10M#0000</v>
       </c>
       <c r="G30" s="82" t="b">
         <v>1</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="F31" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,D31,E31,OvernightIndex)</f>
-        <v>WEUREON11M#0002</v>
+        <v>WEUREON11M#0000</v>
       </c>
       <c r="G31" s="82" t="b">
         <v>1</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="F32" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,D32,E32,OvernightIndex)</f>
-        <v>WEUREON1Y#0002</v>
+        <v>WEUREON1Y#0000</v>
       </c>
       <c r="G32" s="82" t="b">
         <v>1</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F33" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,D33,E33,OvernightIndex)</f>
-        <v>WEUREON15M#0002</v>
+        <v>WEUREON15M#0000</v>
       </c>
       <c r="G33" s="82" t="b">
         <v>1</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="F34" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,D34,E34,OvernightIndex)</f>
-        <v>WEUREON18M#0002</v>
+        <v>WEUREON18M#0000</v>
       </c>
       <c r="G34" s="82" t="b">
         <v>1</v>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="F35" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,D35,E35,OvernightIndex)</f>
-        <v>WEUREON21M#0002</v>
+        <v>WEUREON21M#0000</v>
       </c>
       <c r="G35" s="82" t="b">
         <v>1</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F36" s="90" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,D36,E36,OvernightIndex)</f>
-        <v>WEUREON2Y#0002</v>
+        <v>WEUREON2Y#0000</v>
       </c>
       <c r="G36" s="91" t="b">
         <v>1</v>
@@ -7322,35 +7322,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -7730,8 +7730,8 @@
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_00505#0002</v>
+        <f>_xll.qlGenericInterp(,"interp1",,,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
+        <v>interp1#0002</v>
       </c>
       <c r="N3" s="118" t="s">
         <v>67</v>
@@ -7741,8 +7741,8 @@
       </c>
       <c r="P3" s="126"/>
       <c r="Q3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_00508#0002</v>
+        <f>_xll.qlGenericInterp(,"interp2",,,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
+        <v>interp2#0003</v>
       </c>
       <c r="R3" s="118" t="s">
         <v>67</v>
@@ -7752,8 +7752,8 @@
       </c>
       <c r="T3" s="127"/>
       <c r="U3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_00509#0002</v>
+        <f>_xll.qlGenericInterp(,"interp3",,,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
+        <v>interp3#0004</v>
       </c>
       <c r="V3" s="118" t="s">
         <v>67</v>
@@ -7763,8 +7763,8 @@
       </c>
       <c r="X3" s="127"/>
       <c r="Y3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_0050a#0002</v>
+        <f>_xll.qlGenericInterp(,"interp4",,,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
+        <v>interp4#0005</v>
       </c>
       <c r="Z3" s="118" t="s">
         <v>67</v>
@@ -7774,8 +7774,8 @@
       </c>
       <c r="AB3" s="127"/>
       <c r="AC3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_0050b#0002</v>
+        <f>_xll.qlGenericInterp(,"interp5",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
+        <v>interp5#0006</v>
       </c>
       <c r="AD3" s="118" t="s">
         <v>67</v>
@@ -7785,8 +7785,8 @@
       </c>
       <c r="AF3" s="127"/>
       <c r="AG3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_0050c#0002</v>
+        <f>_xll.qlGenericInterp(,"interp6",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
+        <v>interp6#0007</v>
       </c>
       <c r="AH3" s="118" t="s">
         <v>67</v>
@@ -7796,8 +7796,8 @@
       </c>
       <c r="AJ3" s="127"/>
       <c r="AK3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_0050d#0002</v>
+        <f>_xll.qlGenericInterp(,"interp7",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
+        <v>interp7#0008</v>
       </c>
       <c r="AL3" s="118" t="s">
         <v>67</v>
@@ -7806,8 +7806,8 @@
         <v>69</v>
       </c>
       <c r="AO3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_0050e#0002</v>
+        <f>_xll.qlGenericInterp(,"interp8",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
+        <v>interp8#0009</v>
       </c>
       <c r="AP3" s="118" t="s">
         <v>67</v>
@@ -7816,8 +7816,8 @@
         <v>69</v>
       </c>
       <c r="AS3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_0050f#0002</v>
+        <f>_xll.qlGenericInterp(,"interp9",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
+        <v>interp9#0010</v>
       </c>
       <c r="AT3" s="118" t="s">
         <v>67</v>
@@ -7826,8 +7826,8 @@
         <v>69</v>
       </c>
       <c r="AW3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_00510#0002</v>
+        <f>_xll.qlGenericInterp(,"interp10",,,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
+        <v>interp10#0011</v>
       </c>
       <c r="AX3" s="118" t="s">
         <v>67</v>
@@ -7836,8 +7836,8 @@
         <v>69</v>
       </c>
       <c r="BA3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_00511#0002</v>
+        <f>_xll.qlGenericInterp(,"interp11",,,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
+        <v>interp11#0012</v>
       </c>
       <c r="BB3" s="118" t="s">
         <v>67</v>
@@ -7846,8 +7846,8 @@
         <v>69</v>
       </c>
       <c r="BE3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_00512#0002</v>
+        <f>_xll.qlGenericInterp(,"interp12",,,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
+        <v>interp12#0013</v>
       </c>
       <c r="BF3" s="118" t="s">
         <v>67</v>
@@ -7856,8 +7856,8 @@
         <v>69</v>
       </c>
       <c r="BI3" s="107" t="str">
-        <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_00513#0002</v>
+        <f>_xll.qlGenericInterp(,"interp13",,,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
+        <v>interp13#0014</v>
       </c>
       <c r="BJ3" s="118" t="s">
         <v>67</v>
@@ -32936,7 +32936,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f>_xll.ohTrigger(M3:M4)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33010,7 +33010,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0002</v>
+        <v>EURJump1_SYNTHON_Quote#0000</v>
       </c>
       <c r="L3" s="40">
         <f t="array" ref="L3:L15">QuoteStatic</f>
@@ -33062,7 +33062,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0002</v>
+        <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
       <c r="L4" s="141">
         <v>1</v>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0002</v>
+        <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
       <c r="L5" s="141">
         <v>0.99999685161729968</v>
@@ -33164,7 +33164,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0002</v>
+        <v>EURJump4_SYNTHON_Quote#0000</v>
       </c>
       <c r="L6" s="141">
         <v>0.99999237575302491</v>
@@ -33215,7 +33215,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0002</v>
+        <v>EURJump5_SYNTHON_Quote#0000</v>
       </c>
       <c r="L7" s="141">
         <v>0.99996824223590031</v>
@@ -33266,7 +33266,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0002</v>
+        <v>EURJump6_SYNTHON_Quote#0000</v>
       </c>
       <c r="L8" s="141">
         <v>0.99997651632635709</v>
@@ -33317,7 +33317,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0002</v>
+        <v>EURJump7_SYNTHON_Quote#0000</v>
       </c>
       <c r="L9" s="141">
         <v>0.99998988369315134</v>
@@ -33368,7 +33368,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0002</v>
+        <v>EURJump8_SYNTHON_Quote#0000</v>
       </c>
       <c r="L10" s="141">
         <v>0.99999226871935276</v>
@@ -33419,7 +33419,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0002</v>
+        <v>EURJump9_SYNTHON_Quote#0000</v>
       </c>
       <c r="L11" s="141">
         <v>0.99999360896660505</v>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0002</v>
+        <v>EURJump10_SYNTHON_Quote#0000</v>
       </c>
       <c r="L12" s="141">
         <v>0.99999659453552103</v>
@@ -33521,7 +33521,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0002</v>
+        <v>EURJump11_SYNTHON_Quote#0000</v>
       </c>
       <c r="L13" s="141">
         <v>0.99999880458778456</v>
@@ -33572,7 +33572,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0002</v>
+        <v>EURJump12_SYNTHON_Quote#0000</v>
       </c>
       <c r="L14" s="141">
         <v>1</v>
@@ -33623,7 +33623,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0002</v>
+        <v>EURJump13_SYNTHON_Quote#0000</v>
       </c>
       <c r="L15" s="142">
         <v>0.99996612432397214</v>
